--- a/SE182407_VuKimDuy_GenerateReportYearly_Consumer/Data/Output/Reports/DE456232/Yearly-Report-[2023]-[DE456232].xlsx
+++ b/SE182407_VuKimDuy_GenerateReportYearly_Consumer/Data/Output/Reports/DE456232/Yearly-Report-[2023]-[DE456232].xlsx
@@ -37,118 +37,376 @@
     <x:t>Currency</x:t>
   </x:si>
   <x:si>
-    <x:t>287495</x:t>
+    <x:t>264685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25854.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>642253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27646.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165877</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>653650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23607.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>478001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141728</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42043.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>591654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46298.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>550415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4912.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29473.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>680909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39283.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>829045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5995.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35971.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461879</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>234912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>499283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>475863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>582172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138225</x:t>
   </x:si>
   <x:si>
     <x:t>IT Support</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-04-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35032.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>901641</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52620</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>401135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28579.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>586923</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34050.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>792020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27200.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
+    <x:t>2017-06-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55442.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>977263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38701.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>408013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46733.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>847084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16564.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99388.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>988584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24329.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>908693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1675.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10053.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>647173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43030.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258182</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -499,7 +757,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G7"/>
+  <x:dimension ref="A1:G24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -579,42 +837,42 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>13</x:v>
@@ -622,10 +880,10 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>34</x:v>
@@ -640,30 +898,421 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
         <x:v>44</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
